--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-immunization.xlsx
@@ -609,7 +609,7 @@
     <t>全てのターミノロジがこのパターンに当てはまるわけではない。モデルによってはCodeableConceptではなく，独自構造でCodingを直接指定して文書やコーディング，その解釈や事前条件や事後条件との関連について示される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_Immunization_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_Immunization_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1729,7 +1729,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.72265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.4765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-immunization.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-immunization.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="445">
   <si>
     <t>Property</t>
   </si>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>ワクチンを接種したときの記録，あるいは予防接種について患者や医療従事者などが報告した記録。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1966,16 +1962,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -1986,7 +1982,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1997,28 +1993,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2068,13 +2064,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2100,7 +2096,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2111,25 +2107,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2180,19 +2176,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2212,7 +2208,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2223,28 +2219,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2294,19 +2290,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2326,7 +2322,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2337,7 +2333,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2349,16 +2345,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2384,43 +2380,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2440,18 +2436,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2463,16 +2459,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2522,28 +2518,28 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2554,11 +2550,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2577,16 +2573,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2636,7 +2632,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -2657,7 +2653,7 @@
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2668,7 +2664,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2691,13 +2687,13 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2736,17 +2732,17 @@
         <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -2758,7 +2754,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -2778,10 +2774,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>78</v>
@@ -2791,7 +2787,7 @@
         <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>78</v>
@@ -2803,13 +2799,13 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2860,7 +2856,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -2869,10 +2865,10 @@
         <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -2892,10 +2888,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>78</v>
@@ -2905,7 +2901,7 @@
         <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -2917,13 +2913,13 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2974,7 +2970,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -2983,10 +2979,10 @@
         <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
@@ -3006,10 +3002,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>78</v>
@@ -3019,7 +3015,7 @@
         <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>78</v>
@@ -3031,13 +3027,13 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3088,7 +3084,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3097,10 +3093,10 @@
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
@@ -3120,11 +3116,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3137,25 +3133,25 @@
         <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
@@ -3204,7 +3200,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3216,7 +3212,7 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
@@ -3225,7 +3221,7 @@
         <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3236,7 +3232,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3259,13 +3255,13 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3316,7 +3312,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3328,27 +3324,27 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AK14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3356,31 +3352,31 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="I15" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3406,55 +3402,55 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -3462,7 +3458,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3473,7 +3469,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -3485,16 +3481,16 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3520,52 +3516,52 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="AK16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3576,7 +3572,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3584,31 +3580,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3634,61 +3630,61 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3696,28 +3692,28 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3768,31 +3764,31 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -3800,7 +3796,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3811,7 +3807,7 @@
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>78</v>
@@ -3823,13 +3819,13 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3880,31 +3876,31 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -3912,7 +3908,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3920,31 +3916,31 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3994,39 +3990,39 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4037,7 +4033,7 @@
         <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -4049,13 +4045,13 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4106,19 +4102,19 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>78</v>
@@ -4127,10 +4123,10 @@
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4138,7 +4134,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4149,28 +4145,28 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4220,31 +4216,31 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4252,7 +4248,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4263,7 +4259,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4275,16 +4271,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4310,55 +4306,55 @@
         <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4366,7 +4362,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4377,7 +4373,7 @@
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>
@@ -4389,13 +4385,13 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4446,31 +4442,31 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4478,7 +4474,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4489,7 +4485,7 @@
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>78</v>
@@ -4501,13 +4497,13 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4558,39 +4554,39 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4601,7 +4597,7 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>78</v>
@@ -4613,13 +4609,13 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4670,39 +4666,39 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4713,7 +4709,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -4725,13 +4721,13 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4782,28 +4778,28 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4814,7 +4810,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4825,7 +4821,7 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -4837,13 +4833,13 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4870,63 +4866,63 @@
         <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4937,7 +4933,7 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -4949,13 +4945,13 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4982,63 +4978,63 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5049,7 +5045,7 @@
         <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -5061,16 +5057,16 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5120,28 +5116,28 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5152,7 +5148,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5172,16 +5168,16 @@
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5232,7 +5228,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5244,16 +5240,16 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5264,7 +5260,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5275,7 +5271,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5287,13 +5283,13 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5344,28 +5340,28 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5376,11 +5372,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5399,16 +5395,16 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L33" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="M33" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5458,7 +5454,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5470,7 +5466,7 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -5479,7 +5475,7 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5490,11 +5486,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5507,25 +5503,25 @@
         <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="M34" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>78</v>
@@ -5574,7 +5570,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5586,7 +5582,7 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -5595,7 +5591,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5606,7 +5602,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5617,25 +5613,25 @@
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5662,52 +5658,52 @@
         <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="X35" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="X35" t="s" s="2">
+      <c r="Y35" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5718,7 +5714,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5726,31 +5722,31 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F36" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J36" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5800,31 +5796,31 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -5832,7 +5828,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5852,16 +5848,16 @@
         <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5912,7 +5908,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -5924,16 +5920,16 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -5944,7 +5940,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5967,13 +5963,13 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6000,14 +5996,14 @@
         <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6024,7 +6020,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6036,16 +6032,16 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6056,7 +6052,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6079,13 +6075,13 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6136,7 +6132,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6148,16 +6144,16 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6168,7 +6164,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6179,101 +6175,101 @@
         <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P40" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Q40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Q40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AL40" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6284,7 +6280,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6307,13 +6303,13 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6340,14 +6336,14 @@
         <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6364,7 +6360,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6376,7 +6372,7 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>78</v>
@@ -6385,7 +6381,7 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6396,7 +6392,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6419,13 +6415,13 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6476,7 +6472,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6488,7 +6484,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
@@ -6497,7 +6493,7 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6508,7 +6504,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6519,7 +6515,7 @@
         <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
@@ -6531,13 +6527,13 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6588,28 +6584,28 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6620,11 +6616,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6643,16 +6639,16 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6702,7 +6698,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6714,7 +6710,7 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
@@ -6723,7 +6719,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6734,11 +6730,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6751,25 +6747,25 @@
         <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="M45" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>78</v>
@@ -6818,7 +6814,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -6830,7 +6826,7 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>78</v>
@@ -6839,7 +6835,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -6850,7 +6846,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6861,7 +6857,7 @@
         <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -6873,13 +6869,13 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6930,28 +6926,28 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -6962,7 +6958,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6973,7 +6969,7 @@
         <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -6985,13 +6981,13 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7042,19 +7038,19 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7063,7 +7059,7 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
@@ -7074,7 +7070,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7085,7 +7081,7 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7097,13 +7093,13 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7154,28 +7150,28 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7186,7 +7182,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7197,7 +7193,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7209,13 +7205,13 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7266,28 +7262,28 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7298,7 +7294,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7321,13 +7317,13 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7354,14 +7350,14 @@
         <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7378,7 +7374,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7390,16 +7386,16 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7410,7 +7406,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7421,7 +7417,7 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -7433,13 +7429,13 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7466,14 +7462,14 @@
         <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7490,19 +7486,19 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
@@ -7511,7 +7507,7 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7522,7 +7518,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7545,16 +7541,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7604,7 +7600,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -7616,16 +7612,16 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7636,7 +7632,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7647,7 +7643,7 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>78</v>
@@ -7659,13 +7655,13 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7716,28 +7712,28 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7748,11 +7744,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7771,16 +7767,16 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L54" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="M54" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7830,7 +7826,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -7842,7 +7838,7 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
@@ -7851,7 +7847,7 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7862,11 +7858,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7879,25 +7875,25 @@
         <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="M55" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>78</v>
@@ -7946,7 +7942,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
@@ -7958,7 +7954,7 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
@@ -7967,7 +7963,7 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -7978,7 +7974,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7989,7 +7985,7 @@
         <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>
@@ -8001,13 +7997,13 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8058,28 +8054,28 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8090,7 +8086,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8101,7 +8097,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8113,13 +8109,13 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8170,28 +8166,28 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8202,7 +8198,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8213,7 +8209,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8225,13 +8221,13 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8282,28 +8278,28 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8314,7 +8310,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8337,13 +8333,13 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8394,7 +8390,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -8406,7 +8402,7 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
@@ -8415,7 +8411,7 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
@@ -8426,7 +8422,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8437,7 +8433,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -8449,13 +8445,13 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8506,28 +8502,28 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
@@ -8538,11 +8534,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8561,16 +8557,16 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="M61" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8620,7 +8616,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -8632,7 +8628,7 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>78</v>
@@ -8641,7 +8637,7 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>78</v>
@@ -8652,11 +8648,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8669,25 +8665,25 @@
         <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="M62" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -8736,7 +8732,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -8748,7 +8744,7 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>78</v>
@@ -8757,7 +8753,7 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -8768,7 +8764,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8779,7 +8775,7 @@
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>78</v>
@@ -8791,13 +8787,13 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8848,19 +8844,19 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
@@ -8869,7 +8865,7 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
@@ -8880,7 +8876,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8891,7 +8887,7 @@
         <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>78</v>
@@ -8903,13 +8899,13 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8960,19 +8956,19 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
@@ -8981,7 +8977,7 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
@@ -8992,7 +8988,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9015,13 +9011,13 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9048,14 +9044,14 @@
         <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9072,7 +9068,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -9084,7 +9080,7 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>78</v>
@@ -9093,7 +9089,7 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9104,7 +9100,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9112,10 +9108,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>78</v>
@@ -9127,16 +9123,16 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9186,19 +9182,19 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
@@ -9207,7 +9203,7 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9218,7 +9214,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9229,7 +9225,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>78</v>
@@ -9241,16 +9237,16 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L67" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="M67" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9300,19 +9296,19 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
@@ -9321,7 +9317,7 @@
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
